--- a/trunk/doc/Test cases and estimated CPUh.xlsx
+++ b/trunk/doc/Test cases and estimated CPUh.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="15">
   <si>
     <t>Job Type</t>
   </si>
@@ -48,25 +48,19 @@
     <t>Test</t>
   </si>
   <si>
-    <t>A</t>
+    <t>Grand Total</t>
   </si>
   <si>
-    <t>B</t>
+    <t>A - Password 1st</t>
   </si>
   <si>
-    <t>C</t>
+    <t>B - Password Middle</t>
   </si>
   <si>
-    <t>D</t>
+    <t>C - Password Last</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
+    <t>D - Password Never</t>
   </si>
 </sst>
 </file>
@@ -97,6 +91,7 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,12 +139,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -159,6 +155,78 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10172700" y="276225"/>
+          <a:ext cx="3038475" cy="1914525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="15875" cmpd="dbl">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Times reflect</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> run hours on a single supercomputer cluster.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,13 +514,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -463,34 +531,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -505,20 +573,20 @@
         <v>24</v>
       </c>
       <c r="F2">
-        <f>D2 * E2</f>
+        <f t="shared" ref="F2:F3" si="0">D2 * E2</f>
         <v>3072</v>
       </c>
       <c r="G2">
         <v>24</v>
       </c>
       <c r="H2">
-        <f>D2 * G2</f>
+        <f t="shared" ref="H2:H3" si="1">D2 * G2</f>
         <v>3072</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -533,20 +601,20 @@
         <v>24</v>
       </c>
       <c r="F3">
-        <f>D3 * E3</f>
+        <f t="shared" si="0"/>
         <v>3072</v>
       </c>
       <c r="G3">
         <v>24</v>
       </c>
       <c r="H3">
-        <f>D3 * G3</f>
+        <f t="shared" si="1"/>
         <v>3072</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -555,26 +623,26 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>1024</v>
+        <v>128</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F4">
-        <f>D4 * E4</f>
+        <f t="shared" ref="F4:F5" si="2">D4 * E4</f>
         <v>3072</v>
       </c>
       <c r="G4">
         <v>24</v>
       </c>
       <c r="H4">
-        <f>D4 * G4</f>
-        <v>24576</v>
+        <f t="shared" ref="H4:H5" si="3">D4 * G4</f>
+        <v>3072</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -583,26 +651,26 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>1024</v>
+        <v>128</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F5">
-        <f>D5 * E5</f>
+        <f t="shared" si="2"/>
         <v>3072</v>
       </c>
       <c r="G5">
         <v>24</v>
       </c>
       <c r="H5">
-        <f>D5 * G5</f>
-        <v>24576</v>
+        <f t="shared" si="3"/>
+        <v>3072</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -611,26 +679,26 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>2048</v>
+        <v>128</v>
       </c>
       <c r="E6">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="F6">
-        <f>D6 * E6</f>
+        <f t="shared" ref="F6:F7" si="4">D6 * E6</f>
         <v>3072</v>
       </c>
       <c r="G6">
         <v>24</v>
       </c>
       <c r="H6">
-        <f>D6 * G6</f>
-        <v>49152</v>
+        <f t="shared" ref="H6:H7" si="5">D6 * G6</f>
+        <v>3072</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -639,216 +707,1224 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>2048</v>
+        <v>128</v>
       </c>
       <c r="E7">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="F7">
-        <f>D7 * E7</f>
+        <f t="shared" si="4"/>
         <v>3072</v>
       </c>
       <c r="G7">
         <v>24</v>
       </c>
       <c r="H7">
-        <f>D7 * G7</f>
-        <v>49152</v>
+        <f t="shared" si="5"/>
+        <v>3072</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>128</v>
       </c>
       <c r="E8">
-        <v>0.5</v>
+        <v>24</v>
       </c>
       <c r="F8">
-        <f>D8 * E8</f>
-        <v>64</v>
+        <f t="shared" ref="F8:F15" si="6">D8 * E8</f>
+        <v>3072</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H8">
-        <f>D8 * G8</f>
-        <v>384</v>
+        <f t="shared" ref="H8:H15" si="7">D8 * G8</f>
+        <v>3072</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>128</v>
       </c>
       <c r="E9">
-        <v>0.5</v>
+        <v>24</v>
       </c>
       <c r="F9">
-        <f>D9 * E9</f>
-        <v>64</v>
+        <f t="shared" si="6"/>
+        <v>3072</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H9">
-        <f>D9 * G9</f>
-        <v>384</v>
+        <f t="shared" si="7"/>
+        <v>3072</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>1024</v>
       </c>
       <c r="E10">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <f>D10 * E10</f>
-        <v>512</v>
+        <f t="shared" si="6"/>
+        <v>3072</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H10">
-        <f>D10 * G10</f>
-        <v>3072</v>
+        <f t="shared" si="7"/>
+        <v>24576</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>1024</v>
       </c>
       <c r="E11">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <f>D11 * E11</f>
-        <v>512</v>
+        <f t="shared" si="6"/>
+        <v>3072</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H11">
-        <f>D11 * G11</f>
-        <v>3072</v>
+        <f t="shared" si="7"/>
+        <v>24576</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="E12">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <f>D12 * E12</f>
-        <v>1024</v>
+        <f t="shared" si="6"/>
+        <v>3072</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H12">
-        <f>D12 * G12</f>
-        <v>6144</v>
+        <f t="shared" si="7"/>
+        <v>24576</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D13">
+        <v>1024</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="6"/>
+        <v>3072</v>
+      </c>
+      <c r="G13">
+        <v>24</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="7"/>
+        <v>24576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1024</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="6"/>
+        <v>3072</v>
+      </c>
+      <c r="G14">
+        <v>24</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="7"/>
+        <v>24576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1024</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="6"/>
+        <v>3072</v>
+      </c>
+      <c r="G15">
+        <v>24</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="7"/>
+        <v>24576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1024</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F23" si="8">D16 * E16</f>
+        <v>3072</v>
+      </c>
+      <c r="G16">
+        <v>24</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:H23" si="9">D16 * G16</f>
+        <v>24576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1024</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="8"/>
+        <v>3072</v>
+      </c>
+      <c r="G17">
+        <v>24</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="9"/>
+        <v>24576</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18">
         <v>2048</v>
       </c>
-      <c r="E13">
-        <v>0.5</v>
-      </c>
-      <c r="F13">
-        <f>D13 * E13</f>
-        <v>1024</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <f>D13 * G13</f>
+      <c r="E18">
+        <v>1.5</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="8"/>
+        <v>3072</v>
+      </c>
+      <c r="G18">
+        <v>24</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="9"/>
+        <v>49152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2048</v>
+      </c>
+      <c r="E19">
+        <v>1.5</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="8"/>
+        <v>3072</v>
+      </c>
+      <c r="G19">
+        <v>24</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="9"/>
+        <v>49152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2048</v>
+      </c>
+      <c r="E20">
+        <v>1.5</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="8"/>
+        <v>3072</v>
+      </c>
+      <c r="G20">
+        <v>24</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="9"/>
+        <v>49152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2048</v>
+      </c>
+      <c r="E21">
+        <v>1.5</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="8"/>
+        <v>3072</v>
+      </c>
+      <c r="G21">
+        <v>24</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="9"/>
+        <v>49152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2048</v>
+      </c>
+      <c r="E22">
+        <v>1.5</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="8"/>
+        <v>3072</v>
+      </c>
+      <c r="G22">
+        <v>24</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="9"/>
+        <v>49152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>2048</v>
+      </c>
+      <c r="E23">
+        <v>1.5</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="8"/>
+        <v>3072</v>
+      </c>
+      <c r="G23">
+        <v>24</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="9"/>
+        <v>49152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>2048</v>
+      </c>
+      <c r="E24">
+        <v>1.5</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:F47" si="10">D24 * E24</f>
+        <v>3072</v>
+      </c>
+      <c r="G24">
+        <v>24</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H47" si="11">D24 * G24</f>
+        <v>49152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2048</v>
+      </c>
+      <c r="E25">
+        <v>1.5</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="10"/>
+        <v>3072</v>
+      </c>
+      <c r="G25">
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="11"/>
+        <v>49152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>128</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="10"/>
+        <v>64</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="11"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>128</v>
+      </c>
+      <c r="E27">
+        <v>0.5</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="10"/>
+        <v>64</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="11"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>128</v>
+      </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="10"/>
+        <v>64</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="11"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>128</v>
+      </c>
+      <c r="E29">
+        <v>0.5</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="10"/>
+        <v>64</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="11"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>128</v>
+      </c>
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="10"/>
+        <v>64</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="11"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>128</v>
+      </c>
+      <c r="E31">
+        <v>0.5</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="10"/>
+        <v>64</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="11"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>128</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="10"/>
+        <v>64</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="11"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>128</v>
+      </c>
+      <c r="E33">
+        <v>0.5</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="10"/>
+        <v>64</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="11"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>1024</v>
+      </c>
+      <c r="E34">
+        <v>0.5</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="10"/>
+        <v>512</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="11"/>
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>1024</v>
+      </c>
+      <c r="E35">
+        <v>0.5</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="10"/>
+        <v>512</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="11"/>
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>1024</v>
+      </c>
+      <c r="E36">
+        <v>0.5</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="10"/>
+        <v>512</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="11"/>
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>1024</v>
+      </c>
+      <c r="E37">
+        <v>0.5</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="10"/>
+        <v>512</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="11"/>
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>1024</v>
+      </c>
+      <c r="E38">
+        <v>0.5</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="10"/>
+        <v>512</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="11"/>
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>1024</v>
+      </c>
+      <c r="E39">
+        <v>0.5</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="10"/>
+        <v>512</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="11"/>
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>1024</v>
+      </c>
+      <c r="E40">
+        <v>0.5</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="10"/>
+        <v>512</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="11"/>
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>1024</v>
+      </c>
+      <c r="E41">
+        <v>0.5</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="10"/>
+        <v>512</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="11"/>
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>2048</v>
+      </c>
+      <c r="E42">
+        <v>0.5</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="10"/>
+        <v>1024</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="11"/>
         <v>6144</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="5" customFormat="1">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3">
-        <f>COUNT(B2:B13)</f>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>2048</v>
+      </c>
+      <c r="E43">
+        <v>0.5</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="10"/>
+        <v>1024</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="11"/>
+        <v>6144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3">
-        <f>SUM(E2:E13)</f>
-        <v>60</v>
-      </c>
-      <c r="F14" s="3">
-        <f>SUM(F2:F13)</f>
-        <v>21632</v>
-      </c>
-      <c r="G14" s="3">
-        <f>SUM(G2:G13)</f>
-        <v>162</v>
-      </c>
-      <c r="H14" s="3">
-        <f>SUM(H2:H13)</f>
-        <v>172800</v>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>2048</v>
+      </c>
+      <c r="E44">
+        <v>0.5</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="10"/>
+        <v>1024</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="11"/>
+        <v>6144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>2048</v>
+      </c>
+      <c r="E45">
+        <v>0.5</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="10"/>
+        <v>1024</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="11"/>
+        <v>6144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>2048</v>
+      </c>
+      <c r="E46">
+        <v>0.5</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="10"/>
+        <v>1024</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="11"/>
+        <v>6144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>2048</v>
+      </c>
+      <c r="E47">
+        <v>0.5</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="10"/>
+        <v>1024</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="11"/>
+        <v>6144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>2048</v>
+      </c>
+      <c r="E48">
+        <v>0.5</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ref="F48:F49" si="12">D48 * E48</f>
+        <v>1024</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ref="H48:H49" si="13">D48 * G48</f>
+        <v>6144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>2048</v>
+      </c>
+      <c r="E49">
+        <v>0.5</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="12"/>
+        <v>1024</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="13"/>
+        <v>6144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="6" customFormat="1">
+      <c r="A50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="5">
+        <f>COUNT(B2:B49)</f>
+        <v>48</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5">
+        <f>SUM(E2:E49)</f>
+        <v>240</v>
+      </c>
+      <c r="F50" s="5">
+        <f>SUM(F2:F49)</f>
+        <v>86528</v>
+      </c>
+      <c r="G50" s="5">
+        <f>SUM(G2:G49)</f>
+        <v>648</v>
+      </c>
+      <c r="H50" s="5">
+        <f>SUM(H2:H49)</f>
+        <v>691200</v>
       </c>
     </row>
   </sheetData>
@@ -857,14 +1933,33 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="pzapr"/>
-    <hyperlink ref="C4" r:id="rId2" display="pzapr"/>
-    <hyperlink ref="C6" r:id="rId3" display="pzapr"/>
-    <hyperlink ref="C3" r:id="rId4" display="pzapr"/>
-    <hyperlink ref="C5" r:id="rId5" display="pzapr"/>
+    <hyperlink ref="C3" r:id="rId2" display="pzapr"/>
+    <hyperlink ref="C4" r:id="rId3" display="pzapr"/>
+    <hyperlink ref="C5" r:id="rId4" display="pzapr"/>
+    <hyperlink ref="C6" r:id="rId5" display="pzapr"/>
     <hyperlink ref="C7" r:id="rId6" display="pzapr"/>
+    <hyperlink ref="C8" r:id="rId7" display="pzapr"/>
+    <hyperlink ref="C9" r:id="rId8" display="pzapr"/>
+    <hyperlink ref="C10" r:id="rId9" display="pzapr"/>
+    <hyperlink ref="C11" r:id="rId10" display="pzapr"/>
+    <hyperlink ref="C12" r:id="rId11" display="pzapr"/>
+    <hyperlink ref="C13" r:id="rId12" display="pzapr"/>
+    <hyperlink ref="C14" r:id="rId13" display="pzapr"/>
+    <hyperlink ref="C15" r:id="rId14" display="pzapr"/>
+    <hyperlink ref="C16" r:id="rId15" display="pzapr"/>
+    <hyperlink ref="C17" r:id="rId16" display="pzapr"/>
+    <hyperlink ref="C18" r:id="rId17" display="pzapr"/>
+    <hyperlink ref="C19" r:id="rId18" display="pzapr"/>
+    <hyperlink ref="C20" r:id="rId19" display="pzapr"/>
+    <hyperlink ref="C21" r:id="rId20" display="pzapr"/>
+    <hyperlink ref="C22" r:id="rId21" display="pzapr"/>
+    <hyperlink ref="C23" r:id="rId22" display="pzapr"/>
+    <hyperlink ref="C24" r:id="rId23" display="pzapr"/>
+    <hyperlink ref="C25" r:id="rId24" display="pzapr"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
+  <drawing r:id="rId26"/>
 </worksheet>
 </file>
 
